--- a/Question_Set2/Programming skills/WordPress Developer.xlsx
+++ b/Question_Set2/Programming skills/WordPress Developer.xlsx
@@ -16,23 +16,66 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'How can you increase the memory limit of WordPress?', 'ques_type': 2, 'options': ["define('WP_MEMORY_ NOEXCEED', '256M') in wp-setting.php", "define('WP_MEMORY_LIMIT', '256M') in wp-setting.php", "define('WP_MEMORY_LIMIT', '256M') in wp-config.php", "define('WP_MEMORY_NOEXCEED', '256M') in wp-config.php"], 'score': "define('WP_MEMORY_LIMIT', '256M') in wp-config.php"}, {'title': 'Hiding the version number of your Wordpress installation is a good security practice. How do you do it?', 'ques_type': 2, 'options': ["remove_action('wp_remove_version', 'wp_generator')", "remove_action('wp_version', 'wp_generator')", "remove_action('wp_head', 'wp_generator')", "remove_action('wp_head', 'wp_remove_version')"], 'score': "remove_action('wp_head', 'wp_generator')"}, {'title': 'What piece of code returns the directory path of the plugin?', 'ques_type': 2, 'options': ['&amp;lt?php plugin_basename($file) ?&amp;gt\n', '&amp;lt?php plug_dir_path( $file ) ?&amp;gt', '&amp;lt?php plugin_info(($file) ?&amp;gt', '&amp;lt?phpplugin_content_dir($file) ?&amp;gt'], 'score': '&amp;lt?php plug_dir_path( $file ) ?&amp;gt'}, {'title': 'What are the WordPress functions related to comments?', 'ques_type': 15, 'options': ['wp_allow_comment', 'wp_remove_comment', 'wp_count_comment', 'wp_block_comment', 'wp_delete_comment', 'wp_publish_comment'], 'score': ['wp_allow_comment', 'wp_count_comment', 'wp_delete_comment']}]</t>
+    <t>questions = [
+    {
+        "title": "How can you increase the memory limit of WordPress?",
+        "ques_type": 2,
+        "options": [
+            "define('WP_MEMORY_ NOEXCEED', '256M') in wp-setting.php",
+            "define('WP_MEMORY_LIMIT', '256M') in wp-setting.php",
+            "define('WP_MEMORY_LIMIT', '256M') in wp-config.php",
+            "define('WP_MEMORY_NOEXCEED', '256M') in wp-config.php"
+        ],
+        "score": "define('WP_MEMORY_LIMIT', '256M') in wp-config.php"
+    },
+    {
+        "title": "Hiding the version number of your Wordpress installation is a good security practice. How do you do it?",
+        "ques_type": 2,
+        "options": [
+            "remove_action('wp_remove_version', 'wp_generator')",
+            "remove_action('wp_version', 'wp_generator')",
+            "remove_action('wp_head', 'wp_generator')",
+            "remove_action('wp_head', 'wp_remove_version')"
+        ],
+        "score": "remove_action('wp_head', 'wp_generator')"
+    },
+    {
+        "title": "What piece of code returns the directory path of the plugin?",
+        "ques_type": 2,
+        "options": [
+            "&amp;lt?php plugin_basename($file) ?&amp;gt\n",
+            "&amp;lt?php plug_dir_path( $file ) ?&amp;gt",
+            "&amp;lt?php plugin_info(($file) ?&amp;gt",
+            "&amp;lt?phpplugin_content_dir($file) ?&amp;gt"
+        ],
+        "score": "&amp;lt?php plug_dir_path( $file ) ?&amp;gt"
+    },
+    {
+        "title": "What are the WordPress functions related to comments?",
+        "ques_type": 15,
+        "options": [
+            "wp_allow_comment",
+            "wp_remove_comment",
+            "wp_count_comment",
+            "wp_block_comment",
+            "wp_delete_comment",
+            "wp_publish_comment"
+        ],
+        "score": [
+            "wp_allow_comment",
+            "wp_count_comment",
+            "wp_delete_comment"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +99,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
